--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
@@ -193,25 +193,2815 @@
     <t>Die strammen Buben</t>
   </si>
   <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>22.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>23.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>Willeke-Wortmann</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>23.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>23.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>23.01.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>23.01.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>24.01.2015, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>24.01.2015, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>24.01.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>24.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>24.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>24.01.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>24.01.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>25.01.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>25.01.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>25.01.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>25.01.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>28.01.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>28.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>29.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>30.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>30.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>30.01.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>30.01.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>31.01.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>31.01.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>31.01.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>31.01.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>31.01.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>31.01.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>02.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>02.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>02.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>02.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>03.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>03.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>03.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Padberg</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>05.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>05.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>06.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>06.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>06.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>07.02.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>07.02.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>07.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>08.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>08.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>10.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>10.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>11.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>11.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>13.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>13.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>13.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
     <t>KC Garbker Jungs</t>
   </si>
   <si>
-    <t>22.01.2015, 20:00 Uhr</t>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>14.02.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>14.02.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>14.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>14.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>14.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>14.02.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 13:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
   </si>
   <si>
     <t>Die Bierkutscher</t>
   </si>
   <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>15.02.2015, 13:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
     <t>Padberg - Bahn 2</t>
   </si>
   <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>16.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>16.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>17.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Padberg</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>Willeke-Wortmann</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>22.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>22.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>22.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>22.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>25.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>26.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buden</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>27.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>28.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>28.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>02.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
     <t>Die strammen Buben</t>
   </si>
   <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>03.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>03.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>03.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Padberg</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>05.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>05.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>06.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>06.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>06.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>06.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>06.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>07.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.03.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>07.03.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>07.03.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>07.03.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>07.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>07.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>10.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>10.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>11.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>11.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>13.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>13.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Mach-Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>13.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
     <t>KC Garbker Jungs</t>
   </si>
   <si>
-    <t>23.01.2015, 20:00 Uhr</t>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>14.03.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>14.03.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>14.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>14.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>14.03.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>14.03.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>15.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>15.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>15.03.2015, 12:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>15.03.2015, 12:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>15.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>15.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>16.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>16.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>17.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Padberg</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>19.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>19.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>19.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>20.03.2015, 20:00 Uhr</t>
   </si>
   <si>
     <t>Der Club der dichten Köter</t>
@@ -220,2842 +3010,52 @@
     <t>Willeke-Wortmann</t>
   </si>
   <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
     <t>KC After Nine - dfmA</t>
   </si>
   <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>23.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>23.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>23.01.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>23.01.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>24.01.2015, 14:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>24.01.2015, 14:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>24.01.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>24.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>24.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>24.01.2015, 21:00 Uhr</t>
+    <t>20.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>Willeke-Wortmann</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>21.03.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
   </si>
   <si>
     <t>KC Schlimma gehts Nimma</t>
   </si>
   <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>21.03.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
     <t>Padberg - Bahn 1</t>
   </si>
   <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>24.01.2015, 21:00 Uhr</t>
-  </si>
-  <si>
     <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>25.01.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>25.01.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>25.01.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>25.01.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>28.01.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>28.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>29.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>30.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>30.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>30.01.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>30.01.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>31.01.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>31.01.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>31.01.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>31.01.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>31.01.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>31.01.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>31.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>31.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>31.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>31.01.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>31.01.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>02.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>02.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>02.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>02.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>03.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>03.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>03.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>05.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>05.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>06.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>06.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>06.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>07.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>07.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>07.02.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>07.02.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>07.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>07.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>07.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>07.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>08.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>08.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>10.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>10.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>11.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>11.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>13.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>13.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>13.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>14.02.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>14.02.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>14.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>14.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>14.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>14.02.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 13:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>15.02.2015, 13:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>16.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>16.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>17.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>Willeke-Wortmann</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>22.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>22.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>22.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>22.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>25.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>26.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buden</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>27.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>28.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>28.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>02.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>03.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>03.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>03.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>05.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>05.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>06.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>06.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>06.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>06.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>06.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>07.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.03.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>07.03.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>07.03.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>07.03.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>07.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>07.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>10.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>10.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>11.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>11.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>13.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>13.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>13.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>14.03.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>14.03.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>14.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>14.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>14.03.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>14.03.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>15.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>15.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>15.03.2015, 12:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>15.03.2015, 12:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>15.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>15.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>16.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>16.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>17.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>19.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>19.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>19.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>20.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>Willeke-Wortmann</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>20.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>Willeke-Wortmann</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>21.03.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>21.03.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
   </si>
   <si>
     <t>6 Pils 4 Kre</t>

--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
@@ -706,6 +706,36 @@
     <t>KC Kackstuhl</t>
   </si>
   <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>31.01.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
     <t>31.01.2015, 20:30 Uhr</t>
   </si>
   <si>
@@ -2174,6 +2204,36 @@
   </si>
   <si>
     <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
   </si>
   <si>
     <t>28.02.2015, 20:30 Uhr</t>
@@ -4254,7 +4314,7 @@
         <v>237</v>
       </c>
       <c s="1" r="C48">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D48">
         <v>238</v>
@@ -4294,7 +4354,7 @@
         <v>247</v>
       </c>
       <c s="1" r="C50">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D50">
         <v>248</v>
@@ -4334,7 +4394,7 @@
         <v>257</v>
       </c>
       <c s="1" r="C52">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D52">
         <v>258</v>
@@ -4354,7 +4414,7 @@
         <v>262</v>
       </c>
       <c s="1" r="C53">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D53">
         <v>263</v>
@@ -4367,7 +4427,7 @@
       </c>
     </row>
     <row r="54">
-      <c t="s" s="2" r="A54">
+      <c t="s" s="1" r="A54">
         <v>266</v>
       </c>
       <c t="s" s="1" r="B54">
@@ -4394,12 +4454,12 @@
         <v>272</v>
       </c>
       <c s="1" r="C55">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D55">
         <v>273</v>
       </c>
-      <c t="s" s="4" r="E55">
+      <c t="s" s="1" r="E55">
         <v>274</v>
       </c>
       <c t="s" s="1" r="F55">
@@ -4407,19 +4467,19 @@
       </c>
     </row>
     <row r="56">
-      <c t="s" s="1" r="A56">
+      <c t="s" s="2" r="A56">
         <v>276</v>
       </c>
       <c t="s" s="1" r="B56">
         <v>277</v>
       </c>
       <c s="1" r="C56">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D56">
         <v>278</v>
       </c>
-      <c t="s" s="4" r="E56">
+      <c t="s" s="1" r="E56">
         <v>279</v>
       </c>
       <c t="s" s="1" r="F56">
@@ -4439,7 +4499,7 @@
       <c t="s" s="1" r="D57">
         <v>283</v>
       </c>
-      <c t="s" s="1" r="E57">
+      <c t="s" s="4" r="E57">
         <v>284</v>
       </c>
       <c t="s" s="1" r="F57">
@@ -4459,7 +4519,7 @@
       <c t="s" s="1" r="D58">
         <v>288</v>
       </c>
-      <c t="s" s="1" r="E58">
+      <c t="s" s="4" r="E58">
         <v>289</v>
       </c>
       <c t="s" s="1" r="F58">
@@ -4474,7 +4534,7 @@
         <v>292</v>
       </c>
       <c s="1" r="C59">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D59">
         <v>293</v>
@@ -4494,7 +4554,7 @@
         <v>297</v>
       </c>
       <c s="1" r="C60">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D60">
         <v>298</v>
@@ -4647,7 +4707,7 @@
       </c>
     </row>
     <row r="68">
-      <c t="s" s="2" r="A68">
+      <c t="s" s="1" r="A68">
         <v>336</v>
       </c>
       <c t="s" s="1" r="B68">
@@ -4667,7 +4727,7 @@
       </c>
     </row>
     <row r="69">
-      <c t="s" s="2" r="A69">
+      <c t="s" s="1" r="A69">
         <v>341</v>
       </c>
       <c t="s" s="1" r="B69">
@@ -4767,7 +4827,7 @@
       </c>
     </row>
     <row r="74">
-      <c t="s" s="1" r="A74">
+      <c t="s" s="2" r="A74">
         <v>366</v>
       </c>
       <c t="s" s="1" r="B74">
@@ -4787,7 +4847,7 @@
       </c>
     </row>
     <row r="75">
-      <c t="s" s="1" r="A75">
+      <c t="s" s="2" r="A75">
         <v>371</v>
       </c>
       <c t="s" s="1" r="B75">
@@ -4814,7 +4874,7 @@
         <v>377</v>
       </c>
       <c s="1" r="C76">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D76">
         <v>378</v>
@@ -4830,7 +4890,7 @@
       <c t="s" s="1" r="A77">
         <v>381</v>
       </c>
-      <c t="s" s="3" r="B77">
+      <c t="s" s="1" r="B77">
         <v>382</v>
       </c>
       <c s="1" r="C77">
@@ -4854,7 +4914,7 @@
         <v>387</v>
       </c>
       <c s="1" r="C78">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D78">
         <v>388</v>
@@ -4870,7 +4930,7 @@
       <c t="s" s="1" r="A79">
         <v>391</v>
       </c>
-      <c t="s" s="1" r="B79">
+      <c t="s" s="3" r="B79">
         <v>392</v>
       </c>
       <c s="1" r="C79">
@@ -4934,7 +4994,7 @@
         <v>407</v>
       </c>
       <c s="1" r="C82">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D82">
         <v>408</v>
@@ -4954,7 +5014,7 @@
         <v>412</v>
       </c>
       <c s="1" r="C83">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D83">
         <v>413</v>
@@ -4974,7 +5034,7 @@
         <v>417</v>
       </c>
       <c s="1" r="C84">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D84">
         <v>418</v>
@@ -4994,7 +5054,7 @@
         <v>422</v>
       </c>
       <c s="1" r="C85">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D85">
         <v>423</v>
@@ -5094,7 +5154,7 @@
         <v>447</v>
       </c>
       <c s="1" r="C90">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D90">
         <v>448</v>
@@ -5114,7 +5174,7 @@
         <v>452</v>
       </c>
       <c s="1" r="C91">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D91">
         <v>453</v>
@@ -5134,7 +5194,7 @@
         <v>457</v>
       </c>
       <c s="1" r="C92">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D92">
         <v>458</v>
@@ -5154,7 +5214,7 @@
         <v>462</v>
       </c>
       <c s="1" r="C93">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D93">
         <v>463</v>
@@ -5214,7 +5274,7 @@
         <v>477</v>
       </c>
       <c s="1" r="C96">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D96">
         <v>478</v>
@@ -5234,7 +5294,7 @@
         <v>482</v>
       </c>
       <c s="1" r="C97">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D97">
         <v>483</v>
@@ -5254,7 +5314,7 @@
         <v>487</v>
       </c>
       <c s="1" r="C98">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D98">
         <v>488</v>
@@ -5274,7 +5334,7 @@
         <v>492</v>
       </c>
       <c s="1" r="C99">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D99">
         <v>493</v>
@@ -5314,7 +5374,7 @@
         <v>502</v>
       </c>
       <c s="1" r="C101">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D101">
         <v>503</v>
@@ -5354,7 +5414,7 @@
         <v>512</v>
       </c>
       <c s="1" r="C103">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D103">
         <v>513</v>
@@ -5394,7 +5454,7 @@
         <v>522</v>
       </c>
       <c s="1" r="C105">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D105">
         <v>523</v>
@@ -5414,7 +5474,7 @@
         <v>527</v>
       </c>
       <c s="1" r="C106">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D106">
         <v>528</v>
@@ -5442,7 +5502,7 @@
       <c t="s" s="1" r="E107">
         <v>534</v>
       </c>
-      <c t="s" s="4" r="F107">
+      <c t="s" s="1" r="F107">
         <v>535</v>
       </c>
     </row>
@@ -5462,7 +5522,7 @@
       <c t="s" s="1" r="E108">
         <v>539</v>
       </c>
-      <c t="s" s="4" r="F108">
+      <c t="s" s="1" r="F108">
         <v>540</v>
       </c>
     </row>
@@ -5474,7 +5534,7 @@
         <v>542</v>
       </c>
       <c s="1" r="C109">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D109">
         <v>543</v>
@@ -5482,7 +5542,7 @@
       <c t="s" s="1" r="E109">
         <v>544</v>
       </c>
-      <c t="s" s="1" r="F109">
+      <c t="s" s="4" r="F109">
         <v>545</v>
       </c>
     </row>
@@ -5494,7 +5554,7 @@
         <v>547</v>
       </c>
       <c s="1" r="C110">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D110">
         <v>548</v>
@@ -5502,7 +5562,7 @@
       <c t="s" s="1" r="E110">
         <v>549</v>
       </c>
-      <c t="s" s="1" r="F110">
+      <c t="s" s="4" r="F110">
         <v>550</v>
       </c>
     </row>
@@ -5514,7 +5574,7 @@
         <v>552</v>
       </c>
       <c s="1" r="C111">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D111">
         <v>553</v>
@@ -5534,7 +5594,7 @@
         <v>557</v>
       </c>
       <c s="1" r="C112">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D112">
         <v>558</v>
@@ -5554,7 +5614,7 @@
         <v>562</v>
       </c>
       <c s="1" r="C113">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D113">
         <v>563</v>
@@ -5574,7 +5634,7 @@
         <v>567</v>
       </c>
       <c s="1" r="C114">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D114">
         <v>568</v>
@@ -5594,7 +5654,7 @@
         <v>572</v>
       </c>
       <c s="1" r="C115">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D115">
         <v>573</v>
@@ -5614,7 +5674,7 @@
         <v>577</v>
       </c>
       <c s="1" r="C116">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D116">
         <v>578</v>
@@ -5634,7 +5694,7 @@
         <v>582</v>
       </c>
       <c s="1" r="C117">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D117">
         <v>583</v>
@@ -5654,7 +5714,7 @@
         <v>587</v>
       </c>
       <c s="1" r="C118">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D118">
         <v>588</v>
@@ -5674,7 +5734,7 @@
         <v>592</v>
       </c>
       <c s="1" r="C119">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D119">
         <v>593</v>
@@ -5694,7 +5754,7 @@
         <v>597</v>
       </c>
       <c s="1" r="C120">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D120">
         <v>598</v>
@@ -5714,7 +5774,7 @@
         <v>602</v>
       </c>
       <c s="1" r="C121">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D121">
         <v>603</v>
@@ -5734,7 +5794,7 @@
         <v>607</v>
       </c>
       <c s="1" r="C122">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D122">
         <v>608</v>
@@ -5754,7 +5814,7 @@
         <v>612</v>
       </c>
       <c s="1" r="C123">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D123">
         <v>613</v>
@@ -5774,7 +5834,7 @@
         <v>617</v>
       </c>
       <c s="1" r="C124">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D124">
         <v>618</v>
@@ -5787,16 +5847,16 @@
       </c>
     </row>
     <row r="125">
-      <c t="s" s="4" r="A125">
+      <c t="s" s="1" r="A125">
         <v>621</v>
       </c>
-      <c t="s" s="4" r="B125">
+      <c t="s" s="1" r="B125">
         <v>622</v>
       </c>
-      <c s="5" r="C125">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="4" r="D125">
+      <c s="1" r="C125">
+        <v>1.0</v>
+      </c>
+      <c t="s" s="1" r="D125">
         <v>623</v>
       </c>
       <c t="s" s="1" r="E125">
@@ -5807,16 +5867,16 @@
       </c>
     </row>
     <row r="126">
-      <c t="s" s="4" r="A126">
+      <c t="s" s="1" r="A126">
         <v>626</v>
       </c>
-      <c t="s" s="4" r="B126">
+      <c t="s" s="1" r="B126">
         <v>627</v>
       </c>
-      <c s="5" r="C126">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="4" r="D126">
+      <c s="1" r="C126">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="1" r="D126">
         <v>628</v>
       </c>
       <c t="s" s="1" r="E126">
@@ -5827,16 +5887,16 @@
       </c>
     </row>
     <row r="127">
-      <c t="s" s="1" r="A127">
+      <c t="s" s="4" r="A127">
         <v>631</v>
       </c>
-      <c t="s" s="1" r="B127">
+      <c t="s" s="4" r="B127">
         <v>632</v>
       </c>
-      <c s="1" r="C127">
+      <c s="5" r="C127">
         <v>3.0</v>
       </c>
-      <c t="s" s="1" r="D127">
+      <c t="s" s="4" r="D127">
         <v>633</v>
       </c>
       <c t="s" s="1" r="E127">
@@ -5847,16 +5907,16 @@
       </c>
     </row>
     <row r="128">
-      <c t="s" s="1" r="A128">
+      <c t="s" s="4" r="A128">
         <v>636</v>
       </c>
-      <c t="s" s="1" r="B128">
+      <c t="s" s="4" r="B128">
         <v>637</v>
       </c>
-      <c s="1" r="C128">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="1" r="D128">
+      <c s="5" r="C128">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="4" r="D128">
         <v>638</v>
       </c>
       <c t="s" s="1" r="E128">
@@ -5914,7 +5974,7 @@
         <v>652</v>
       </c>
       <c s="1" r="C131">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D131">
         <v>653</v>
@@ -5974,7 +6034,7 @@
         <v>667</v>
       </c>
       <c s="1" r="C134">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D134">
         <v>668</v>
@@ -5987,16 +6047,16 @@
       </c>
     </row>
     <row r="135">
-      <c t="s" s="4" r="A135">
+      <c t="s" s="1" r="A135">
         <v>671</v>
       </c>
-      <c t="s" s="4" r="B135">
+      <c t="s" s="1" r="B135">
         <v>672</v>
       </c>
-      <c s="6" r="C135">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="4" r="D135">
+      <c s="1" r="C135">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="1" r="D135">
         <v>673</v>
       </c>
       <c t="s" s="1" r="E135">
@@ -6007,16 +6067,16 @@
       </c>
     </row>
     <row r="136">
-      <c t="s" s="4" r="A136">
+      <c t="s" s="1" r="A136">
         <v>676</v>
       </c>
-      <c t="s" s="4" r="B136">
+      <c t="s" s="1" r="B136">
         <v>677</v>
       </c>
-      <c s="6" r="C136">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="4" r="D136">
+      <c s="1" r="C136">
+        <v>2.0</v>
+      </c>
+      <c t="s" s="1" r="D136">
         <v>678</v>
       </c>
       <c t="s" s="1" r="E136">
@@ -6027,16 +6087,16 @@
       </c>
     </row>
     <row r="137">
-      <c t="s" s="1" r="A137">
+      <c t="s" s="4" r="A137">
         <v>681</v>
       </c>
-      <c t="s" s="1" r="B137">
+      <c t="s" s="4" r="B137">
         <v>682</v>
       </c>
-      <c s="1" r="C137">
+      <c s="6" r="C137">
         <v>3.0</v>
       </c>
-      <c t="s" s="1" r="D137">
+      <c t="s" s="4" r="D137">
         <v>683</v>
       </c>
       <c t="s" s="1" r="E137">
@@ -6047,16 +6107,16 @@
       </c>
     </row>
     <row r="138">
-      <c t="s" s="1" r="A138">
+      <c t="s" s="4" r="A138">
         <v>686</v>
       </c>
-      <c t="s" s="1" r="B138">
+      <c t="s" s="4" r="B138">
         <v>687</v>
       </c>
-      <c s="1" r="C138">
+      <c s="6" r="C138">
         <v>4.0</v>
       </c>
-      <c t="s" s="1" r="D138">
+      <c t="s" s="4" r="D138">
         <v>688</v>
       </c>
       <c t="s" s="1" r="E138">
@@ -6079,7 +6139,7 @@
       <c t="s" s="1" r="D139">
         <v>693</v>
       </c>
-      <c t="s" s="4" r="E139">
+      <c t="s" s="1" r="E139">
         <v>694</v>
       </c>
       <c t="s" s="1" r="F139">
@@ -6099,7 +6159,7 @@
       <c t="s" s="1" r="D140">
         <v>698</v>
       </c>
-      <c t="s" s="4" r="E140">
+      <c t="s" s="1" r="E140">
         <v>699</v>
       </c>
       <c t="s" s="1" r="F140">
@@ -6119,7 +6179,7 @@
       <c t="s" s="1" r="D141">
         <v>703</v>
       </c>
-      <c t="s" s="1" r="E141">
+      <c t="s" s="4" r="E141">
         <v>704</v>
       </c>
       <c t="s" s="1" r="F141">
@@ -6139,7 +6199,7 @@
       <c t="s" s="1" r="D142">
         <v>708</v>
       </c>
-      <c t="s" s="1" r="E142">
+      <c t="s" s="4" r="E142">
         <v>709</v>
       </c>
       <c t="s" s="1" r="F142">
@@ -6194,7 +6254,7 @@
         <v>722</v>
       </c>
       <c s="1" r="C145">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D145">
         <v>723</v>
@@ -6214,7 +6274,7 @@
         <v>727</v>
       </c>
       <c s="1" r="C146">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D146">
         <v>728</v>
@@ -6274,7 +6334,7 @@
         <v>742</v>
       </c>
       <c s="1" r="C149">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D149">
         <v>743</v>
@@ -6314,7 +6374,7 @@
         <v>752</v>
       </c>
       <c s="1" r="C151">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D151">
         <v>753</v>
@@ -6334,7 +6394,7 @@
         <v>757</v>
       </c>
       <c s="1" r="C152">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D152">
         <v>758</v>
@@ -6374,7 +6434,7 @@
         <v>767</v>
       </c>
       <c s="1" r="C154">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D154">
         <v>768</v>
@@ -6394,7 +6454,7 @@
         <v>772</v>
       </c>
       <c s="1" r="C155">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D155">
         <v>773</v>
@@ -6414,7 +6474,7 @@
         <v>777</v>
       </c>
       <c s="1" r="C156">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D156">
         <v>778</v>
@@ -6474,7 +6534,7 @@
         <v>792</v>
       </c>
       <c s="1" r="C159">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D159">
         <v>793</v>
@@ -6494,7 +6554,7 @@
         <v>797</v>
       </c>
       <c s="1" r="C160">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D160">
         <v>798</v>
@@ -6514,7 +6574,7 @@
         <v>802</v>
       </c>
       <c s="1" r="C161">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D161">
         <v>803</v>
@@ -6534,7 +6594,7 @@
         <v>807</v>
       </c>
       <c s="1" r="C162">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D162">
         <v>808</v>
@@ -6647,7 +6707,7 @@
       </c>
     </row>
     <row r="168">
-      <c t="s" s="2" r="A168">
+      <c t="s" s="1" r="A168">
         <v>836</v>
       </c>
       <c t="s" s="1" r="B168">
@@ -6667,14 +6727,14 @@
       </c>
     </row>
     <row r="169">
-      <c t="s" s="2" r="A169">
+      <c t="s" s="1" r="A169">
         <v>841</v>
       </c>
       <c t="s" s="1" r="B169">
         <v>842</v>
       </c>
       <c s="1" r="C169">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D169">
         <v>843</v>
@@ -6687,14 +6747,14 @@
       </c>
     </row>
     <row r="170">
-      <c t="s" s="2" r="A170">
+      <c t="s" s="1" r="A170">
         <v>846</v>
       </c>
       <c t="s" s="1" r="B170">
         <v>847</v>
       </c>
       <c s="1" r="C170">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D170">
         <v>848</v>
@@ -6714,7 +6774,7 @@
         <v>852</v>
       </c>
       <c s="1" r="C171">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D171">
         <v>853</v>
@@ -6727,14 +6787,14 @@
       </c>
     </row>
     <row r="172">
-      <c t="s" s="1" r="A172">
+      <c t="s" s="2" r="A172">
         <v>856</v>
       </c>
       <c t="s" s="1" r="B172">
         <v>857</v>
       </c>
       <c s="1" r="C172">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D172">
         <v>858</v>
@@ -6787,7 +6847,7 @@
       </c>
     </row>
     <row r="175">
-      <c t="s" s="2" r="A175">
+      <c t="s" s="1" r="A175">
         <v>871</v>
       </c>
       <c t="s" s="1" r="B175">
@@ -6807,7 +6867,7 @@
       </c>
     </row>
     <row r="176">
-      <c t="s" s="2" r="A176">
+      <c t="s" s="1" r="A176">
         <v>876</v>
       </c>
       <c t="s" s="1" r="B176">
@@ -6834,7 +6894,7 @@
         <v>882</v>
       </c>
       <c s="1" r="C177">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D177">
         <v>883</v>
@@ -6854,7 +6914,7 @@
         <v>887</v>
       </c>
       <c s="1" r="C178">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D178">
         <v>888</v>
@@ -6874,7 +6934,7 @@
         <v>892</v>
       </c>
       <c s="1" r="C179">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D179">
         <v>893</v>
@@ -6894,7 +6954,7 @@
         <v>897</v>
       </c>
       <c s="1" r="C180">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D180">
         <v>898</v>
@@ -6927,7 +6987,7 @@
       </c>
     </row>
     <row r="182">
-      <c t="s" s="1" r="A182">
+      <c t="s" s="2" r="A182">
         <v>906</v>
       </c>
       <c t="s" s="1" r="B182">
@@ -6947,7 +7007,7 @@
       </c>
     </row>
     <row r="183">
-      <c t="s" s="1" r="A183">
+      <c t="s" s="2" r="A183">
         <v>911</v>
       </c>
       <c t="s" s="1" r="B183">
@@ -6967,7 +7027,7 @@
       </c>
     </row>
     <row r="184">
-      <c t="s" s="1" r="A184">
+      <c t="s" s="2" r="A184">
         <v>916</v>
       </c>
       <c t="s" s="1" r="B184">
@@ -6987,7 +7047,7 @@
       </c>
     </row>
     <row r="185">
-      <c t="s" s="1" r="A185">
+      <c t="s" s="2" r="A185">
         <v>921</v>
       </c>
       <c t="s" s="1" r="B185">
@@ -7087,7 +7147,7 @@
       </c>
     </row>
     <row r="190">
-      <c t="s" s="2" r="A190">
+      <c t="s" s="1" r="A190">
         <v>946</v>
       </c>
       <c t="s" s="1" r="B190">
@@ -7107,7 +7167,7 @@
       </c>
     </row>
     <row r="191">
-      <c t="s" s="2" r="A191">
+      <c t="s" s="1" r="A191">
         <v>951</v>
       </c>
       <c t="s" s="1" r="B191">
@@ -7127,7 +7187,7 @@
       </c>
     </row>
     <row r="192">
-      <c t="s" s="2" r="A192">
+      <c t="s" s="1" r="A192">
         <v>956</v>
       </c>
       <c t="s" s="1" r="B192">
@@ -7147,7 +7207,7 @@
       </c>
     </row>
     <row r="193">
-      <c t="s" s="2" r="A193">
+      <c t="s" s="1" r="A193">
         <v>961</v>
       </c>
       <c t="s" s="1" r="B193">
@@ -7167,14 +7227,14 @@
       </c>
     </row>
     <row r="194">
-      <c t="s" s="1" r="A194">
+      <c t="s" s="2" r="A194">
         <v>966</v>
       </c>
       <c t="s" s="1" r="B194">
         <v>967</v>
       </c>
       <c s="1" r="C194">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D194">
         <v>968</v>
@@ -7187,7 +7247,7 @@
       </c>
     </row>
     <row r="195">
-      <c t="s" s="1" r="A195">
+      <c t="s" s="2" r="A195">
         <v>971</v>
       </c>
       <c t="s" s="1" r="B195">
@@ -7207,14 +7267,14 @@
       </c>
     </row>
     <row r="196">
-      <c t="s" s="1" r="A196">
+      <c t="s" s="2" r="A196">
         <v>976</v>
       </c>
       <c t="s" s="1" r="B196">
         <v>977</v>
       </c>
       <c s="1" r="C196">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D196">
         <v>978</v>
@@ -7227,7 +7287,7 @@
       </c>
     </row>
     <row r="197">
-      <c t="s" s="1" r="A197">
+      <c t="s" s="2" r="A197">
         <v>981</v>
       </c>
       <c t="s" s="1" r="B197">
@@ -7254,7 +7314,7 @@
         <v>987</v>
       </c>
       <c s="1" r="C198">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D198">
         <v>988</v>
@@ -7294,7 +7354,7 @@
         <v>997</v>
       </c>
       <c s="1" r="C200">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D200">
         <v>998</v>
@@ -7527,16 +7587,16 @@
       </c>
     </row>
     <row r="212">
-      <c t="s" s="7" r="A212">
+      <c t="s" s="1" r="A212">
         <v>1056</v>
       </c>
-      <c t="s" s="8" r="B212">
+      <c t="s" s="1" r="B212">
         <v>1057</v>
       </c>
-      <c s="9" r="C212">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="8" r="D212">
+      <c s="1" r="C212">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="1" r="D212">
         <v>1058</v>
       </c>
       <c t="s" s="1" r="E212">
@@ -7564,6 +7624,86 @@
       </c>
       <c t="s" s="1" r="F213">
         <v>1065</v>
+      </c>
+    </row>
+    <row r="214">
+      <c t="s" s="1" r="A214">
+        <v>1066</v>
+      </c>
+      <c t="s" s="1" r="B214">
+        <v>1067</v>
+      </c>
+      <c s="1" r="C214">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="1" r="D214">
+        <v>1068</v>
+      </c>
+      <c t="s" s="1" r="E214">
+        <v>1069</v>
+      </c>
+      <c t="s" s="1" r="F214">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="215">
+      <c t="s" s="1" r="A215">
+        <v>1071</v>
+      </c>
+      <c t="s" s="1" r="B215">
+        <v>1072</v>
+      </c>
+      <c s="1" r="C215">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="1" r="D215">
+        <v>1073</v>
+      </c>
+      <c t="s" s="1" r="E215">
+        <v>1074</v>
+      </c>
+      <c t="s" s="1" r="F215">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="216">
+      <c t="s" s="7" r="A216">
+        <v>1076</v>
+      </c>
+      <c t="s" s="8" r="B216">
+        <v>1077</v>
+      </c>
+      <c s="9" r="C216">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="8" r="D216">
+        <v>1078</v>
+      </c>
+      <c t="s" s="1" r="E216">
+        <v>1079</v>
+      </c>
+      <c t="s" s="1" r="F216">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="217">
+      <c t="s" s="1" r="A217">
+        <v>1081</v>
+      </c>
+      <c t="s" s="1" r="B217">
+        <v>1082</v>
+      </c>
+      <c s="1" r="C217">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="1" r="D217">
+        <v>1083</v>
+      </c>
+      <c t="s" s="1" r="E217">
+        <v>1084</v>
+      </c>
+      <c t="s" s="1" r="F217">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2015/events.xlsx
@@ -94,7 +94,7 @@
     <t>16.01.2015, 20:30 Uhr</t>
   </si>
   <si>
-    <t>Mach-Wech</t>
+    <t>KC Mach Wech</t>
   </si>
   <si>
     <t>Kasbar</t>
@@ -805,7 +805,7 @@
     <t>Padberg - Bahn 1</t>
   </si>
   <si>
-    <t>Mach-Wech</t>
+    <t>KC Mach Wech</t>
   </si>
   <si>
     <t>VS Rappelkiste nmB</t>
@@ -847,10 +847,10 @@
     <t>KC Eckpinn 1926</t>
   </si>
   <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
   </si>
   <si>
     <t>Die Frischlinge</t>
@@ -946,2068 +946,2068 @@
     <t>Kommt nix bei rum</t>
   </si>
   <si>
-    <t>07.02.2015, 15:00 Uhr</t>
+    <t>07.02.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>07.02.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>07.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>07.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>08.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>08.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>10.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>10.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>11.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>11.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>13.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>13.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>13.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>14.02.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>14.02.2015, 10:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>14.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>14.02.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>14.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>14.02.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>14.02.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>15.02.2015, 13:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>15.02.2015, 13:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>16.02.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>16.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>17.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>19.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>Willeke-Wortmann</t>
+  </si>
+  <si>
+    <t>TuS Langenholthausen 2</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>20.02.2015, 20:15 Uhr</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>21.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>21.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
   </si>
   <si>
     <t>KC K.e.R.n.</t>
   </si>
   <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
     <t>Padberg - Bahn 3</t>
   </si>
   <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>21.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>22.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>22.02.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>22.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>22.02.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>25.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>26.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>Landsberger Hof</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>27.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Eurotaucher</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>27.02.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>28.02.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>28.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>28.02.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Zufallstreffer</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
     <t>KC Ordentlich Ordentlich</t>
   </si>
   <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>28.02.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
     <t>Kommt nix bei rum</t>
   </si>
   <si>
-    <t>07.02.2015, 16:45 Uhr</t>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
   </si>
   <si>
     <t>KC Endlich ein Team</t>
   </si>
   <si>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>02.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Eine fehlt immer</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>02.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>03.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>03.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Plan B</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>03.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
     <t>Padberg - Bahn 2</t>
   </si>
   <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Kackstuhl</t>
+  </si>
+  <si>
+    <t>05.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>05.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>06.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>06.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Stadtmitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>KC Kegelgötter</t>
+  </si>
+  <si>
+    <t>06.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>06.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC KKK</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>06.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>07.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC K.e.R.n.</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>KC Bierwächter</t>
+  </si>
+  <si>
+    <t>07.03.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
     <t>KC El Bacco</t>
   </si>
   <si>
+    <t>07.03.2015, 15:30 Uhr</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>KC El Bacco</t>
+  </si>
+  <si>
+    <t>07.03.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>07.03.2015, 16:45 Uhr</t>
+  </si>
+  <si>
+    <t>KC Endlich ein Team</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>KC Gossenschlürfer</t>
+  </si>
+  <si>
+    <t>07.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>07.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>07.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>KC Säbelzahnkackstuhl</t>
+  </si>
+  <si>
+    <t>10.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>10.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>Philipp-Neri-Haus</t>
+  </si>
+  <si>
+    <t>Die Dritte - Das Herz der SG</t>
+  </si>
+  <si>
+    <t>Der Club der dichten Köter</t>
+  </si>
+  <si>
+    <t>11.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>6 Pils 4 Kre</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>KC Schlimma gehts Nimma</t>
+  </si>
+  <si>
+    <t>11.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>VS Rappelkiste nmB</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC Zahlreich</t>
+  </si>
+  <si>
+    <t>KC Holzknacker</t>
+  </si>
+  <si>
+    <t>13.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>13.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Gebt 8</t>
+  </si>
+  <si>
+    <t>KC Umwerfend</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die strammen Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Räumkommando</t>
+  </si>
+  <si>
+    <t>KC Ordentlich Ordentlich</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>13.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>KC Mach Wech</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>Fast so gut wie schön</t>
+  </si>
+  <si>
+    <t>13.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>13.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>Habbel</t>
+  </si>
+  <si>
+    <t>KC Gossenbrüder</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
+  </si>
+  <si>
+    <t>14.03.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
     <t>Gipfelstürmer</t>
   </si>
   <si>
-    <t>07.02.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
+    <t>14.03.2015, 15:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Sahneschnitte</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>El Gossos</t>
+  </si>
+  <si>
+    <t>Gipfelstürmer</t>
+  </si>
+  <si>
+    <t>14.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
   </si>
   <si>
     <t>Padberg - Bahn 2</t>
   </si>
   <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>07.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>14.03.2015, 17:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Komafackel</t>
+  </si>
+  <si>
+    <t>KC After Nine - dfmA</t>
+  </si>
+  <si>
+    <t>14.03.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>14.03.2015, 21:00 Uhr </t>
+  </si>
+  <si>
+    <t>KC Reingedengelt</t>
+  </si>
+  <si>
+    <t>Kasbar</t>
+  </si>
+  <si>
+    <t>Los Brennos</t>
+  </si>
+  <si>
+    <t>KC Garbker Jungs</t>
+  </si>
+  <si>
+    <t>15.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>15.03.2015, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Taugenichtse</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 3</t>
+  </si>
+  <si>
+    <t>KC willewarda</t>
+  </si>
+  <si>
+    <t>Kommt nix bei rum</t>
+  </si>
+  <si>
+    <t>15.03.2015, 12:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
   </si>
   <si>
     <t>Padberg - Bahn 1</t>
   </si>
   <si>
-    <t>KC Sahneschnitte</t>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>15.03.2015, 12:00 Uhr</t>
+  </si>
+  <si>
+    <t>Die Frischlinge</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 1</t>
+  </si>
+  <si>
+    <t>Die Superschüsse</t>
+  </si>
+  <si>
+    <t>Gossenjäger</t>
+  </si>
+  <si>
+    <t>15.03.2015, 19:00 Uhr</t>
   </si>
   <si>
     <t>KC Panzerknacker</t>
   </si>
   <si>
-    <t>07.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>15.03.2015, 19:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Panzerknacker</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>KC Glitzer Flitzer</t>
+  </si>
+  <si>
+    <t>Die Bierkutscher</t>
+  </si>
+  <si>
+    <t>16.03.2015, 19:30 Uhr</t>
+  </si>
+  <si>
+    <t>Auf die Buben</t>
+  </si>
+  <si>
+    <t>Padberg - Bahn 2</t>
+  </si>
+  <si>
+    <t>Die Hammerwerfer</t>
+  </si>
+  <si>
+    <t>Fegelfreunde</t>
+  </si>
+  <si>
+    <t>16.03.2015, 20:30 Uhr</t>
+  </si>
+  <si>
+    <t>Nicht gut, aber durstig</t>
   </si>
   <si>
     <t>Padberg - Bahn 1</t>
   </si>
   <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>07.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>07.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>07.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>08.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
+    <t>KC Pegelkegler</t>
+  </si>
+  <si>
+    <t>KC Waldenten</t>
+  </si>
+  <si>
+    <t>17.03.2015, 21:00 Uhr</t>
+  </si>
+  <si>
+    <t>KC Eckpinn 1926</t>
   </si>
   <si>
     <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>08.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>10.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>10.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>11.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>11.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>13.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>13.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>13.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>14.02.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>14.02.2015, 10:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>14.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>14.02.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>14.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>14.02.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>14.02.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>15.02.2015, 13:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>15.02.2015, 13:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>16.02.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>16.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>17.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>19.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>Willeke-Wortmann</t>
-  </si>
-  <si>
-    <t>TuS Langenholthausen 2</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>20.02.2015, 20:15 Uhr</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>21.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>21.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>21.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>22.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>22.02.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>22.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>22.02.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>25.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>26.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buden</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>Landsberger Hof</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>27.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Eurotaucher</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>27.02.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>28.02.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>28.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>28.02.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Zufallstreffer</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Hammerwerfer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Hammerwerfer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>28.02.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>02.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Eine fehlt immer</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>02.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>03.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>03.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Plan B</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>03.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Kackstuhl</t>
-  </si>
-  <si>
-    <t>05.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>05.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>06.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>06.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Stadtmitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>KC Kegelgötter</t>
-  </si>
-  <si>
-    <t>06.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>06.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC KKK</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>06.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>07.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>KC Bierwächter</t>
-  </si>
-  <si>
-    <t>07.03.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>07.03.2015, 15:30 Uhr</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC K.e.R.n.</t>
-  </si>
-  <si>
-    <t>KC El Bacco</t>
-  </si>
-  <si>
-    <t>07.03.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>07.03.2015, 16:45 Uhr</t>
-  </si>
-  <si>
-    <t>KC Endlich ein Team</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>KC Gossenschlürfer</t>
-  </si>
-  <si>
-    <t>07.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>07.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>07.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>KC Säbelzahnkackstuhl</t>
-  </si>
-  <si>
-    <t>10.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>10.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>Philipp-Neri-Haus</t>
-  </si>
-  <si>
-    <t>Die Dritte - Das Herz der SG</t>
-  </si>
-  <si>
-    <t>Der Club der dichten Köter</t>
-  </si>
-  <si>
-    <t>11.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>6 Pils 4 Kre</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>KC Schlimma gehts Nimma</t>
-  </si>
-  <si>
-    <t>11.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>VS Rappelkiste nmB</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC Zahlreich</t>
-  </si>
-  <si>
-    <t>KC Holzknacker</t>
-  </si>
-  <si>
-    <t>13.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>13.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Gebt 8</t>
-  </si>
-  <si>
-    <t>KC Umwerfend</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die strammen Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Räumkommando</t>
-  </si>
-  <si>
-    <t>KC Ordentlich Ordentlich</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>13.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Mach-Wech</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>Fast so gut wie schön</t>
-  </si>
-  <si>
-    <t>13.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>13.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>Habbel</t>
-  </si>
-  <si>
-    <t>KC Gossenbrüder</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>14.03.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>14.03.2015, 15:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Sahneschnitte</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>El Gossos</t>
-  </si>
-  <si>
-    <t>Gipfelstürmer</t>
-  </si>
-  <si>
-    <t>14.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>14.03.2015, 17:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Komafackel</t>
-  </si>
-  <si>
-    <t>KC After Nine - dfmA</t>
-  </si>
-  <si>
-    <t>14.03.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>14.03.2015, 21:00 Uhr </t>
-  </si>
-  <si>
-    <t>KC Reingedengelt</t>
-  </si>
-  <si>
-    <t>Kasbar</t>
-  </si>
-  <si>
-    <t>Los Brennos</t>
-  </si>
-  <si>
-    <t>KC Garbker Jungs</t>
-  </si>
-  <si>
-    <t>15.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>15.03.2015, 11:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Taugenichtse</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 3</t>
-  </si>
-  <si>
-    <t>KC willewarda</t>
-  </si>
-  <si>
-    <t>Kommt nix bei rum</t>
-  </si>
-  <si>
-    <t>15.03.2015, 12:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>15.03.2015, 12:00 Uhr</t>
-  </si>
-  <si>
-    <t>Die Frischlinge</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>Die Superschüsse</t>
-  </si>
-  <si>
-    <t>Gossenjäger</t>
-  </si>
-  <si>
-    <t>15.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>15.03.2015, 19:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Panzerknacker</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>KC Glitzer Flitzer</t>
-  </si>
-  <si>
-    <t>Die Bierkutscher</t>
-  </si>
-  <si>
-    <t>16.03.2015, 19:30 Uhr</t>
-  </si>
-  <si>
-    <t>Auf die Buben</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 2</t>
-  </si>
-  <si>
-    <t>Hammerwerfer</t>
-  </si>
-  <si>
-    <t>Fegelfreunde</t>
-  </si>
-  <si>
-    <t>16.03.2015, 20:30 Uhr</t>
-  </si>
-  <si>
-    <t>Nicht gut, aber durstig</t>
-  </si>
-  <si>
-    <t>Padberg - Bahn 1</t>
-  </si>
-  <si>
-    <t>KC Pegelkegler</t>
-  </si>
-  <si>
-    <t>KC Waldenten</t>
-  </si>
-  <si>
-    <t>17.03.2015, 21:00 Uhr</t>
-  </si>
-  <si>
-    <t>KC Eckpinn 1926</t>
-  </si>
-  <si>
-    <t>Padberg</t>
   </si>
   <si>
     <t>KC Taugenichtse</t>
@@ -3285,12 +3285,18 @@
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3311,7 +3317,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
@@ -3320,6 +3326,9 @@
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2" applyFill="1">
       <alignment/>
     </xf>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
@@ -4290,7 +4299,7 @@
       <c t="s" s="1" r="A47">
         <v>231</v>
       </c>
-      <c t="s" s="1" r="B47">
+      <c t="s" s="4" r="B47">
         <v>232</v>
       </c>
       <c s="1" r="C47">
@@ -4310,7 +4319,7 @@
       <c t="s" s="1" r="A48">
         <v>236</v>
       </c>
-      <c t="s" s="1" r="B48">
+      <c t="s" s="4" r="B48">
         <v>237</v>
       </c>
       <c s="1" r="C48">
@@ -4499,7 +4508,7 @@
       <c t="s" s="1" r="D57">
         <v>283</v>
       </c>
-      <c t="s" s="4" r="E57">
+      <c t="s" s="5" r="E57">
         <v>284</v>
       </c>
       <c t="s" s="1" r="F57">
@@ -4519,7 +4528,7 @@
       <c t="s" s="1" r="D58">
         <v>288</v>
       </c>
-      <c t="s" s="4" r="E58">
+      <c t="s" s="5" r="E58">
         <v>289</v>
       </c>
       <c t="s" s="1" r="F58">
@@ -4614,7 +4623,7 @@
         <v>312</v>
       </c>
       <c s="1" r="C63">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D63">
         <v>313</v>
@@ -4634,7 +4643,7 @@
         <v>317</v>
       </c>
       <c s="1" r="C64">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D64">
         <v>318</v>
@@ -4654,7 +4663,7 @@
         <v>322</v>
       </c>
       <c s="1" r="C65">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D65">
         <v>323</v>
@@ -4674,7 +4683,7 @@
         <v>327</v>
       </c>
       <c s="1" r="C66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D66">
         <v>328</v>
@@ -4694,7 +4703,7 @@
         <v>332</v>
       </c>
       <c s="1" r="C67">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D67">
         <v>333</v>
@@ -4714,7 +4723,7 @@
         <v>337</v>
       </c>
       <c s="1" r="C68">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D68">
         <v>338</v>
@@ -4727,14 +4736,14 @@
       </c>
     </row>
     <row r="69">
-      <c t="s" s="1" r="A69">
+      <c t="s" s="2" r="A69">
         <v>341</v>
       </c>
       <c t="s" s="1" r="B69">
         <v>342</v>
       </c>
       <c s="1" r="C69">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D69">
         <v>343</v>
@@ -4754,7 +4763,7 @@
         <v>347</v>
       </c>
       <c s="1" r="C70">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D70">
         <v>348</v>
@@ -4774,7 +4783,7 @@
         <v>352</v>
       </c>
       <c s="1" r="C71">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D71">
         <v>353</v>
@@ -4794,7 +4803,7 @@
         <v>357</v>
       </c>
       <c s="1" r="C72">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D72">
         <v>358</v>
@@ -4814,12 +4823,12 @@
         <v>362</v>
       </c>
       <c s="1" r="C73">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D73">
         <v>363</v>
       </c>
-      <c t="s" s="1" r="E73">
+      <c t="s" s="4" r="E73">
         <v>364</v>
       </c>
       <c t="s" s="1" r="F73">
@@ -4834,12 +4843,12 @@
         <v>367</v>
       </c>
       <c s="1" r="C74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D74">
         <v>368</v>
       </c>
-      <c t="s" s="1" r="E74">
+      <c t="s" s="4" r="E74">
         <v>369</v>
       </c>
       <c t="s" s="1" r="F74">
@@ -4847,14 +4856,14 @@
       </c>
     </row>
     <row r="75">
-      <c t="s" s="2" r="A75">
+      <c t="s" s="1" r="A75">
         <v>371</v>
       </c>
       <c t="s" s="1" r="B75">
         <v>372</v>
       </c>
       <c s="1" r="C75">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D75">
         <v>373</v>
@@ -4874,7 +4883,7 @@
         <v>377</v>
       </c>
       <c s="1" r="C76">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D76">
         <v>378</v>
@@ -4910,7 +4919,7 @@
       <c t="s" s="1" r="A78">
         <v>386</v>
       </c>
-      <c t="s" s="1" r="B78">
+      <c t="s" s="3" r="B78">
         <v>387</v>
       </c>
       <c s="1" r="C78">
@@ -4930,11 +4939,11 @@
       <c t="s" s="1" r="A79">
         <v>391</v>
       </c>
-      <c t="s" s="3" r="B79">
+      <c t="s" s="1" r="B79">
         <v>392</v>
       </c>
       <c s="1" r="C79">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D79">
         <v>393</v>
@@ -4954,7 +4963,7 @@
         <v>397</v>
       </c>
       <c s="1" r="C80">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D80">
         <v>398</v>
@@ -4974,7 +4983,7 @@
         <v>402</v>
       </c>
       <c s="1" r="C81">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D81">
         <v>403</v>
@@ -4994,7 +5003,7 @@
         <v>407</v>
       </c>
       <c s="1" r="C82">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D82">
         <v>408</v>
@@ -5034,7 +5043,7 @@
         <v>417</v>
       </c>
       <c s="1" r="C84">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D84">
         <v>418</v>
@@ -5074,7 +5083,7 @@
         <v>427</v>
       </c>
       <c s="1" r="C86">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D86">
         <v>428</v>
@@ -5094,7 +5103,7 @@
         <v>432</v>
       </c>
       <c s="1" r="C87">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D87">
         <v>433</v>
@@ -5114,7 +5123,7 @@
         <v>437</v>
       </c>
       <c s="1" r="C88">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D88">
         <v>438</v>
@@ -5134,7 +5143,7 @@
         <v>442</v>
       </c>
       <c s="1" r="C89">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D89">
         <v>443</v>
@@ -5154,7 +5163,7 @@
         <v>447</v>
       </c>
       <c s="1" r="C90">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D90">
         <v>448</v>
@@ -5194,7 +5203,7 @@
         <v>457</v>
       </c>
       <c s="1" r="C92">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D92">
         <v>458</v>
@@ -5214,7 +5223,7 @@
         <v>462</v>
       </c>
       <c s="1" r="C93">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D93">
         <v>463</v>
@@ -5234,7 +5243,7 @@
         <v>467</v>
       </c>
       <c s="1" r="C94">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D94">
         <v>468</v>
@@ -5254,7 +5263,7 @@
         <v>472</v>
       </c>
       <c s="1" r="C95">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D95">
         <v>473</v>
@@ -5274,7 +5283,7 @@
         <v>477</v>
       </c>
       <c s="1" r="C96">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D96">
         <v>478</v>
@@ -5294,7 +5303,7 @@
         <v>482</v>
       </c>
       <c s="1" r="C97">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D97">
         <v>483</v>
@@ -5314,7 +5323,7 @@
         <v>487</v>
       </c>
       <c s="1" r="C98">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D98">
         <v>488</v>
@@ -5334,7 +5343,7 @@
         <v>492</v>
       </c>
       <c s="1" r="C99">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D99">
         <v>493</v>
@@ -5354,7 +5363,7 @@
         <v>497</v>
       </c>
       <c s="1" r="C100">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D100">
         <v>498</v>
@@ -5374,7 +5383,7 @@
         <v>502</v>
       </c>
       <c s="1" r="C101">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D101">
         <v>503</v>
@@ -5419,7 +5428,7 @@
       <c t="s" s="1" r="D103">
         <v>513</v>
       </c>
-      <c t="s" s="1" r="E103">
+      <c t="s" s="4" r="E103">
         <v>514</v>
       </c>
       <c t="s" s="1" r="F103">
@@ -5434,7 +5443,7 @@
         <v>517</v>
       </c>
       <c s="1" r="C104">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D104">
         <v>518</v>
@@ -5454,7 +5463,7 @@
         <v>522</v>
       </c>
       <c s="1" r="C105">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D105">
         <v>523</v>
@@ -5474,7 +5483,7 @@
         <v>527</v>
       </c>
       <c s="1" r="C106">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D106">
         <v>528</v>
@@ -5494,7 +5503,7 @@
         <v>532</v>
       </c>
       <c s="1" r="C107">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D107">
         <v>533</v>
@@ -5514,7 +5523,7 @@
         <v>537</v>
       </c>
       <c s="1" r="C108">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D108">
         <v>538</v>
@@ -5522,7 +5531,7 @@
       <c t="s" s="1" r="E108">
         <v>539</v>
       </c>
-      <c t="s" s="1" r="F108">
+      <c t="s" s="5" r="F108">
         <v>540</v>
       </c>
     </row>
@@ -5534,7 +5543,7 @@
         <v>542</v>
       </c>
       <c s="1" r="C109">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D109">
         <v>543</v>
@@ -5542,7 +5551,7 @@
       <c t="s" s="1" r="E109">
         <v>544</v>
       </c>
-      <c t="s" s="4" r="F109">
+      <c t="s" s="5" r="F109">
         <v>545</v>
       </c>
     </row>
@@ -5554,7 +5563,7 @@
         <v>547</v>
       </c>
       <c s="1" r="C110">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D110">
         <v>548</v>
@@ -5562,7 +5571,7 @@
       <c t="s" s="1" r="E110">
         <v>549</v>
       </c>
-      <c t="s" s="4" r="F110">
+      <c t="s" s="1" r="F110">
         <v>550</v>
       </c>
     </row>
@@ -5574,7 +5583,7 @@
         <v>552</v>
       </c>
       <c s="1" r="C111">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D111">
         <v>553</v>
@@ -5594,7 +5603,7 @@
         <v>557</v>
       </c>
       <c s="1" r="C112">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D112">
         <v>558</v>
@@ -5614,7 +5623,7 @@
         <v>562</v>
       </c>
       <c s="1" r="C113">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D113">
         <v>563</v>
@@ -5634,7 +5643,7 @@
         <v>567</v>
       </c>
       <c s="1" r="C114">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D114">
         <v>568</v>
@@ -5654,7 +5663,7 @@
         <v>572</v>
       </c>
       <c s="1" r="C115">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D115">
         <v>573</v>
@@ -5674,7 +5683,7 @@
         <v>577</v>
       </c>
       <c s="1" r="C116">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D116">
         <v>578</v>
@@ -5694,7 +5703,7 @@
         <v>582</v>
       </c>
       <c s="1" r="C117">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D117">
         <v>583</v>
@@ -5714,7 +5723,7 @@
         <v>587</v>
       </c>
       <c s="1" r="C118">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D118">
         <v>588</v>
@@ -5734,7 +5743,7 @@
         <v>592</v>
       </c>
       <c s="1" r="C119">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D119">
         <v>593</v>
@@ -5754,7 +5763,7 @@
         <v>597</v>
       </c>
       <c s="1" r="C120">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D120">
         <v>598</v>
@@ -5774,7 +5783,7 @@
         <v>602</v>
       </c>
       <c s="1" r="C121">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D121">
         <v>603</v>
@@ -5794,7 +5803,7 @@
         <v>607</v>
       </c>
       <c s="1" r="C122">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D122">
         <v>608</v>
@@ -5814,7 +5823,7 @@
         <v>612</v>
       </c>
       <c s="1" r="C123">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D123">
         <v>613</v>
@@ -5834,7 +5843,7 @@
         <v>617</v>
       </c>
       <c s="1" r="C124">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="D124">
         <v>618</v>
@@ -5854,7 +5863,7 @@
         <v>622</v>
       </c>
       <c s="1" r="C125">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D125">
         <v>623</v>
@@ -5867,16 +5876,16 @@
       </c>
     </row>
     <row r="126">
-      <c t="s" s="1" r="A126">
+      <c t="s" s="5" r="A126">
         <v>626</v>
       </c>
-      <c t="s" s="1" r="B126">
+      <c t="s" s="5" r="B126">
         <v>627</v>
       </c>
-      <c s="1" r="C126">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="D126">
+      <c s="6" r="C126">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="5" r="D126">
         <v>628</v>
       </c>
       <c t="s" s="1" r="E126">
@@ -5887,16 +5896,16 @@
       </c>
     </row>
     <row r="127">
-      <c t="s" s="4" r="A127">
+      <c t="s" s="5" r="A127">
         <v>631</v>
       </c>
-      <c t="s" s="4" r="B127">
+      <c t="s" s="5" r="B127">
         <v>632</v>
       </c>
-      <c s="5" r="C127">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="4" r="D127">
+      <c s="6" r="C127">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="5" r="D127">
         <v>633</v>
       </c>
       <c t="s" s="1" r="E127">
@@ -5907,16 +5916,16 @@
       </c>
     </row>
     <row r="128">
-      <c t="s" s="4" r="A128">
+      <c t="s" s="1" r="A128">
         <v>636</v>
       </c>
-      <c t="s" s="4" r="B128">
+      <c t="s" s="1" r="B128">
         <v>637</v>
       </c>
-      <c s="5" r="C128">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="4" r="D128">
+      <c s="1" r="C128">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="1" r="D128">
         <v>638</v>
       </c>
       <c t="s" s="1" r="E128">
@@ -5994,7 +6003,7 @@
         <v>657</v>
       </c>
       <c s="1" r="C132">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D132">
         <v>658</v>
@@ -6014,7 +6023,7 @@
         <v>662</v>
       </c>
       <c s="1" r="C133">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D133">
         <v>663</v>
@@ -6034,7 +6043,7 @@
         <v>667</v>
       </c>
       <c s="1" r="C134">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D134">
         <v>668</v>
@@ -6054,7 +6063,7 @@
         <v>672</v>
       </c>
       <c s="1" r="C135">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D135">
         <v>673</v>
@@ -6067,16 +6076,16 @@
       </c>
     </row>
     <row r="136">
-      <c t="s" s="1" r="A136">
+      <c t="s" s="5" r="A136">
         <v>676</v>
       </c>
-      <c t="s" s="1" r="B136">
+      <c t="s" s="5" r="B136">
         <v>677</v>
       </c>
-      <c s="1" r="C136">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="1" r="D136">
+      <c s="7" r="C136">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="5" r="D136">
         <v>678</v>
       </c>
       <c t="s" s="1" r="E136">
@@ -6087,16 +6096,16 @@
       </c>
     </row>
     <row r="137">
-      <c t="s" s="4" r="A137">
+      <c t="s" s="5" r="A137">
         <v>681</v>
       </c>
-      <c t="s" s="4" r="B137">
+      <c t="s" s="5" r="B137">
         <v>682</v>
       </c>
-      <c s="6" r="C137">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="4" r="D137">
+      <c s="7" r="C137">
+        <v>4.0</v>
+      </c>
+      <c t="s" s="5" r="D137">
         <v>683</v>
       </c>
       <c t="s" s="1" r="E137">
@@ -6107,16 +6116,16 @@
       </c>
     </row>
     <row r="138">
-      <c t="s" s="4" r="A138">
+      <c t="s" s="1" r="A138">
         <v>686</v>
       </c>
-      <c t="s" s="4" r="B138">
+      <c t="s" s="1" r="B138">
         <v>687</v>
       </c>
-      <c s="6" r="C138">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="4" r="D138">
+      <c s="1" r="C138">
+        <v>3.0</v>
+      </c>
+      <c t="s" s="1" r="D138">
         <v>688</v>
       </c>
       <c t="s" s="1" r="E138">
@@ -6134,7 +6143,7 @@
         <v>692</v>
       </c>
       <c s="1" r="C139">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D139">
         <v>693</v>
@@ -6154,12 +6163,12 @@
         <v>697</v>
       </c>
       <c s="1" r="C140">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D140">
         <v>698</v>
       </c>
-      <c t="s" s="1" r="E140">
+      <c t="s" s="5" r="E140">
         <v>699</v>
       </c>
       <c t="s" s="1" r="F140">
@@ -6174,12 +6183,12 @@
         <v>702</v>
       </c>
       <c s="1" r="C141">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D141">
         <v>703</v>
       </c>
-      <c t="s" s="4" r="E141">
+      <c t="s" s="5" r="E141">
         <v>704</v>
       </c>
       <c t="s" s="1" r="F141">
@@ -6194,12 +6203,12 @@
         <v>707</v>
       </c>
       <c s="1" r="C142">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D142">
         <v>708</v>
       </c>
-      <c t="s" s="4" r="E142">
+      <c t="s" s="1" r="E142">
         <v>709</v>
       </c>
       <c t="s" s="1" r="F142">
@@ -6214,7 +6223,7 @@
         <v>712</v>
       </c>
       <c s="1" r="C143">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D143">
         <v>713</v>
@@ -6234,7 +6243,7 @@
         <v>717</v>
       </c>
       <c s="1" r="C144">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D144">
         <v>718</v>
@@ -6254,7 +6263,7 @@
         <v>722</v>
       </c>
       <c s="1" r="C145">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D145">
         <v>723</v>
@@ -6270,11 +6279,11 @@
       <c t="s" s="1" r="A146">
         <v>726</v>
       </c>
-      <c t="s" s="1" r="B146">
+      <c t="s" s="4" r="B146">
         <v>727</v>
       </c>
       <c s="1" r="C146">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D146">
         <v>728</v>
@@ -6290,11 +6299,11 @@
       <c t="s" s="1" r="A147">
         <v>731</v>
       </c>
-      <c t="s" s="1" r="B147">
+      <c t="s" s="4" r="B147">
         <v>732</v>
       </c>
       <c s="1" r="C147">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D147">
         <v>733</v>
@@ -6314,7 +6323,7 @@
         <v>737</v>
       </c>
       <c s="1" r="C148">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D148">
         <v>738</v>
@@ -6334,7 +6343,7 @@
         <v>742</v>
       </c>
       <c s="1" r="C149">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D149">
         <v>743</v>
@@ -6374,7 +6383,7 @@
         <v>752</v>
       </c>
       <c s="1" r="C151">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D151">
         <v>753</v>
@@ -6394,7 +6403,7 @@
         <v>757</v>
       </c>
       <c s="1" r="C152">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D152">
         <v>758</v>
@@ -6434,7 +6443,7 @@
         <v>767</v>
       </c>
       <c s="1" r="C154">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D154">
         <v>768</v>
@@ -6454,7 +6463,7 @@
         <v>772</v>
       </c>
       <c s="1" r="C155">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D155">
         <v>773</v>
@@ -6494,7 +6503,7 @@
         <v>782</v>
       </c>
       <c s="1" r="C157">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D157">
         <v>783</v>
@@ -6514,7 +6523,7 @@
         <v>787</v>
       </c>
       <c s="1" r="C158">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D158">
         <v>788</v>
@@ -6534,7 +6543,7 @@
         <v>792</v>
       </c>
       <c s="1" r="C159">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D159">
         <v>793</v>
@@ -6554,7 +6563,7 @@
         <v>797</v>
       </c>
       <c s="1" r="C160">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="D160">
         <v>798</v>
@@ -6574,7 +6583,7 @@
         <v>802</v>
       </c>
       <c s="1" r="C161">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="D161">
         <v>803</v>
@@ -6614,7 +6623,7 @@
         <v>812</v>
       </c>
       <c s="1" r="C163">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="D163">
         <v>813</v>
@@ -6679,7 +6688,7 @@
       <c t="s" s="1" r="D166">
         <v>828</v>
       </c>
-      <c t="s" s="1" r="E166">
+      <c t="s" s="4" r="E166">
         <v>829</v>
       </c>
       <c t="s" s="1" r="F166">
@@ -6699,7 +6708,7 @@
       <c t="s" s="1" r="D167">
         <v>833</v>
       </c>
-      <c t="s" s="1" r="E167">
+      <c t="s" s="4" r="E167">
         <v>834</v>
       </c>
       <c t="s" s="1" r="F167">
@@ -7319,7 +7328,7 @@
       <c t="s" s="1" r="D198">
         <v>988</v>
       </c>
-      <c t="s" s="1" r="E198">
+      <c t="s" s="4" r="E198">
         <v>989</v>
       </c>
       <c t="s" s="1" r="F198">
@@ -7667,16 +7676,16 @@
       </c>
     </row>
     <row r="216">
-      <c t="s" s="7" r="A216">
+      <c t="s" s="8" r="A216">
         <v>1076</v>
       </c>
-      <c t="s" s="8" r="B216">
+      <c t="s" s="9" r="B216">
         <v>1077</v>
       </c>
-      <c s="9" r="C216">
+      <c s="10" r="C216">
         <v>4.0</v>
       </c>
-      <c t="s" s="8" r="D216">
+      <c t="s" s="9" r="D216">
         <v>1078</v>
       </c>
       <c t="s" s="1" r="E216">
